--- a/GameDesign/HMcsv설명/JemTable.xlsx
+++ b/GameDesign/HMcsv설명/JemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\github\Heros-Manager\GameDesign\HMcsv설명\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57E2C765-5E37-446D-BCCF-E82D6C757F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F64CEB-8BE6-4466-A8B4-2BD1F44DB76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{92ED02C7-F8F2-4A6C-93BA-6AAA5A997B06}"/>
+    <workbookView xWindow="7560" yWindow="924" windowWidth="13584" windowHeight="8964" xr2:uid="{92ED02C7-F8F2-4A6C-93BA-6AAA5A997B06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>JemID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,10 @@
   </si>
   <si>
     <t>Jem_MetalDetector_a1</t>
+  </si>
+  <si>
+    <t>StartLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -618,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047AD365-CA9B-4CF3-8630-19D803FED9C9}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -631,12 +635,13 @@
     <col min="3" max="3" width="24.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -653,16 +658,19 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -679,16 +687,19 @@
         <v>24</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.05</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -705,7 +716,7 @@
         <v>25</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -713,8 +724,11 @@
       <c r="H3">
         <v>3</v>
       </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -731,16 +745,19 @@
         <v>26</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -757,12 +774,15 @@
         <v>27</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.03</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.01</v>
       </c>
     </row>

--- a/GameDesign/HMcsv설명/JemTable.xlsx
+++ b/GameDesign/HMcsv설명/JemTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\github\Heros-Manager\GameDesign\HMcsv설명\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F64CEB-8BE6-4466-A8B4-2BD1F44DB76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CEEF28-6827-4FCB-A998-5DABF66390FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="924" windowWidth="13584" windowHeight="8964" xr2:uid="{92ED02C7-F8F2-4A6C-93BA-6AAA5A997B06}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{92ED02C7-F8F2-4A6C-93BA-6AAA5A997B06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,1056 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>82104</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{494F4F1D-A624-482A-AFF6-F93A8854698F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보석</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타입입니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+0 : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중복</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보석입니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>. 
+Max</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>레벨까지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중복획득</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>레벨업</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할때</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> LevelUpAmount</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만큼</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> value(1)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>더합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중복</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>불가능한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보석입니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{C0CAEE29-30A2-4CC5-82E1-9CAC3A92F6F2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>레벨업</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수치</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만큼</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> value(1)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>더해집니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.
+Ex) Jem_InfiniteFire</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">경우
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">       Lv.1 : 3</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, Lv.2 : 3+3 = 6</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, Lv.Max : 6+3=9</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{843DE0B0-05CC-4D03-AA72-05B60ABF6DF5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유물을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>처음</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>먹었을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>열에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>컷씬</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오픈</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>코드가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>컷씬을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시킵니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도감에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등록</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>JemID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,18 +1097,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jem_MagicShoes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jem_InfiniteFire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,39 +1110,6 @@
   </si>
   <si>
     <t>보석 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>야영지에서 돌아다니는 레이의 이동 속도가</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 기본 이동속도 x Value(1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>만큼 오릅니다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelUpAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,10 +1200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jem_MagicShoes_Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jem_InfiniteFire_Image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,10 +1216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jem_MagicShoes_t1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jem_InfiniteFire_t1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,9 +1228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jem_MagicShoes_a1</t>
-  </si>
-  <si>
     <t>Jem_InfiniteFire_a1</t>
   </si>
   <si>
@@ -245,7 +1237,184 @@
     <t>Jem_MetalDetector_a1</t>
   </si>
   <si>
+    <t>Jem_LayDiary1</t>
+  </si>
+  <si>
+    <t>Jem_LayDiary2</t>
+  </si>
+  <si>
+    <t>JemType</t>
+  </si>
+  <si>
     <t>StartLevel</t>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>Value(1)</t>
+  </si>
+  <si>
+    <t>Value(2)</t>
+  </si>
+  <si>
+    <t>LevelUpAmount</t>
+  </si>
+  <si>
+    <t>open_Lay_1</t>
+  </si>
+  <si>
+    <t>open_Lay_2</t>
+  </si>
+  <si>
+    <t>Jem_LayDiary1_Image</t>
+  </si>
+  <si>
+    <t>Jem_LayDiary1_t1</t>
+  </si>
+  <si>
+    <t>Jem_LayDiary1_a1</t>
+  </si>
+  <si>
+    <t>Jem_LayDiary2_Image</t>
+  </si>
+  <si>
+    <t>Jem_LayDiary2_t1</t>
+  </si>
+  <si>
+    <t>Jem_LayDiary2_a1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">야영지 레이의 이동속도 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Value(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%만큼 증가시킵니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">레이의 크기를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Value(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>만큼 증가시킵니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보석 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보석 이미지코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보석 이름 스트링 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보석 설명 스트링 코드 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업 당 증가 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컷씬 오픈 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보석 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CutsceneOpenID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +1422,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,21 +1447,92 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -301,12 +1541,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -323,6 +1587,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,173 +1889,335 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047AD365-CA9B-4CF3-8630-19D803FED9C9}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047AD365-CA9B-4CF3-8630-19D803FED9C9}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6">
+        <v>3</v>
+      </c>
+      <c r="J4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>3</v>
+      </c>
+      <c r="L4" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>4</v>
+      </c>
+      <c r="J5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="J6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="L6" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>0.05</v>
-      </c>
-      <c r="I2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>0.03</v>
-      </c>
-      <c r="I5">
-        <v>0.01</v>
+      <c r="G8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>